--- a/biology/Zoologie/Donacia_splendida/Donacia_splendida.xlsx
+++ b/biology/Zoologie/Donacia_splendida/Donacia_splendida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donacia splendida est une espèce fossile de coléoptères de la sous-famille Donaciinae (famille Chrysomelidae).
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Donacia splendida est décrite en 1935 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2]. 
-Fossile
-L'holotype MNHN-F-R06676, de l'ère Cénozoïque, et de l'âge Gélasien (2,588 à 1,806 Ma) vient du lac Chambon dans le département du Puy-de-Dôme, en Auvergne, et est conservée au Muséum national d'histoire naturelle de Paris[1],[3]. Cet holotype appartient à la collection Piton, du Dr Louis Émile Piton (1909-1945), paléontologue et ami de Nicolas Théobald.
-Confirmation du genre
-L'espèce Donacia splendida est confirmée dans le genre par Jorge A. Santiago-Blay (d) en 1994[4].
-Éymologie
-L'épithète spécifique splendida signifie en latin « splendide ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Donacia splendida est décrite en 1935 par le paléontologue français Nicolas Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -545,52 +553,242 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype MNHN-F-R06676, de l'ère Cénozoïque, et de l'âge Gélasien (2,588 à 1,806 Ma) vient du lac Chambon dans le département du Puy-de-Dôme, en Auvergne, et est conservée au Muséum national d'histoire naturelle de Paris,. Cet holotype appartient à la collection Piton, du Dr Louis Émile Piton (1909-1945), paléontologue et ami de Nicolas Théobald.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Donacia splendida est confirmée dans le genre par Jorge A. Santiago-Blay (d) en 1994.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Éymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique splendida signifie en latin « splendide ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Est représenté par une élytre gauche d'une conservation admirable et vue de l'extérieur. Téguments brun métallique, éclat bronzé.
 Élytre bombé à surface inégale, d'aspect moiré. Epipleure régulièrement développée le long du bord externe. Le creux de l'épaule est de forme ovale. Bord antérieur légèrement concave. Bord marginal légèrement creusé vers le tiers intérieur. Bord sutural droit. A partir du tiers postérieur les deux bords se rapprochent, sommet arrondi.
 Ornementation très nette (voir figure), formée de sillons profonds avec des points enfoncés, points de forme arrondie ou légèrement ovale et espacés. Ces points ne sont pas tous de même taille. Une striole scutellaire avec points disposés en zigzag et de petite taille. Dix stries formées de points en général régulièrement alignés, mais par endroits, points dispersés, surtout vers l'extrémité postérieure où les rangées s'étalent et se confondent en même temps que les sillons et que les points s'effacent. Une dernière ligne de points fins et réduite à sa partie médiane sur le bord marginal.
-En comprenant la striole scutellaire et la strie marginale, il y a douze stries ornées de points. »[1].
-Dimensions
-Longueur de l'élytre : 4,3 mm ; largeur : 1,4 mm[1].
-Affinités
-« Serait voisin de Donacia impressa Payk.[note 1] qui a des élytres moirés. Mais les points y sont beaucoup plus effacés que dans notre échantillon. »[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Donacia_splendida</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Donacia_splendida</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+En comprenant la striole scutellaire et la strie marginale, il y a douze stries ornées de points. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longueur de l'élytre : 4,3 mm ; largeur : 1,4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Serait voisin de Donacia impressa Payk.[note 1] qui a des élytres moirés. Mais les points y sont beaucoup plus effacés que dans notre échantillon. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donacia_splendida</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les Donacia vivent sur les plantes aquatiques (Scirpus, Sparganium, Carex, Iris, Typha, etc.), la larve dans le collet de ces plantes. »[1].
+« Les Donacia vivent sur les plantes aquatiques (Scirpus, Sparganium, Carex, Iris, Typha, etc.), la larve dans le collet de ces plantes. ».
 </t>
         </is>
       </c>
